--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:16:28+00:00</t>
+    <t>2025-04-29T12:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:17:00+00:00</t>
+    <t>2025-04-29T16:12:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -312,13 +312,17 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>availability status of the document</t>
+    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
   </si>
   <si>
     <t>**Availability Status**</t>
@@ -328,6 +332,12 @@
   </si>
   <si>
     <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au document.</t>
   </si>
   <si>
     <t>DocumentEntry.confidentiality</t>
@@ -349,7 +359,10 @@
 </t>
   </si>
   <si>
-    <t>timestamp of creation of document</t>
+    <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
     <t>DocumentEntry.format</t>
@@ -377,7 +390,7 @@
     <t>DocumentEntry.hash</t>
   </si>
   <si>
-    <t>hash value</t>
+    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSetting</t>
@@ -782,7 +795,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1528,10 +1541,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1543,13 +1556,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1603,10 +1616,10 @@
         <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1617,10 +1630,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1646,10 +1659,10 @@
         <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1680,7 +1693,7 @@
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1698,7 +1711,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -1715,10 +1728,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1744,10 +1757,10 @@
         <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1798,7 +1811,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1815,10 +1828,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1844,10 +1857,10 @@
         <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1878,25 +1891,25 @@
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1913,10 +1926,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1939,13 +1952,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1996,7 +2009,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2013,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2042,10 +2055,10 @@
         <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2076,7 +2089,7 @@
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2094,7 +2107,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2111,10 +2124,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2137,13 +2150,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2194,7 +2207,7 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -2211,10 +2224,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2222,7 +2235,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2240,10 +2253,10 @@
         <v>79</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2294,10 +2307,10 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
@@ -2311,10 +2324,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2340,10 +2353,10 @@
         <v>87</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2374,7 +2387,7 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -2392,7 +2405,7 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -2409,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2438,10 +2451,10 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2472,7 +2485,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -2490,7 +2503,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2507,10 +2520,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2536,10 +2549,10 @@
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2590,7 +2603,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -2607,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2636,10 +2649,10 @@
         <v>79</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2690,7 +2703,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -2707,10 +2720,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2736,10 +2749,10 @@
         <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2790,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -2807,10 +2820,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2836,10 +2849,10 @@
         <v>87</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2890,7 +2903,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -2907,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2936,10 +2949,10 @@
         <v>82</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2990,7 +3003,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3007,10 +3020,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3036,10 +3049,10 @@
         <v>79</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3090,7 +3103,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3107,10 +3120,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3136,10 +3149,10 @@
         <v>82</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3190,7 +3203,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3207,10 +3220,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3236,10 +3249,10 @@
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3290,7 +3303,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3307,10 +3320,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3333,13 +3346,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3390,7 +3403,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3407,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3433,13 +3446,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3490,7 +3503,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T16:12:43+00:00</t>
+    <t>2025-04-30T07:00:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:00:53+00:00</t>
+    <t>2025-04-30T07:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:06:28+00:00</t>
+    <t>2025-04-30T13:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Document Entry** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
+    <t>Model logique d'un document</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -249,229 +247,280 @@
     <t>Base</t>
   </si>
   <si>
-    <t>DocumentEntry.title</t>
+    <t>DocumentEntry.entryUUID</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiant unique du document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.logicalId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
+  </si>
+  <si>
+    <t>DocumentEntry.mimeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d'un document. </t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
+  </si>
+  <si>
+    <t>DocumentEntry.hash</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>title of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
-    <t>identifier of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uri</t>
-  </si>
-  <si>
-    <t>URI of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>class Code of the document</t>
-  </si>
-  <si>
-    <t>**Class Code**</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>type Code</t>
-  </si>
-  <si>
-    <t>**Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
-</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
-  </si>
-  <si>
-    <t>**Availability Status**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
-  </si>
-  <si>
-    <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le commentaire associé au document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentiality</t>
-  </si>
-  <si>
-    <t>confidentiality Code</t>
-  </si>
-  <si>
-    <t>**Confidentiality Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.creationTime</t>
+    <t xml:space="preserve">Cette métadonnée correspond à la taille du document déposé. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la taille du document déposé.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.languageCode</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le code de la langue dans laquelle le document est rédigé.</t>
+  </si>
+  <si>
+    <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
+  </si>
+  <si>
+    <t>XCN</t>
+  </si>
+  <si>
+    <t>DocumentEntry.repositoryUniqueId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceStartTime</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
+    <t>Cette métadonnée représente la date de début de l'acte de référence.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceEndTime</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la date de fin de l'acte de référence, si connue.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.URI</t>
+  </si>
+  <si>
+    <t>Cette métadonnée n'est exploitée que par la transaction XDM 'Distribute document set on media ITI-32'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.title</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le titre du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique affecté au document par son créateur. </t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté au document par son créateur.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class représente la classe du document </t>
+  </si>
+  <si>
+    <t>**Class Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentiality</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Métadonnée contenant les informations définissant le niveau de confidentialité d'un document déposé dans l'entrepôt. Dans le cadre de la mise en œuvre du masquage et de la non-visibilité, ces métadonnées sont utilisées pour rendre inaccessible un document à l'utilisateur</t>
+  </si>
+  <si>
+    <t>**Confidentiality Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.eventCodeList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/EventCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie). </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie).</t>
+  </si>
+  <si>
+    <t>DocumentEntry.format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métadonnée contenant les informations définissant le format du document. </t>
+  </si>
+  <si>
+    <t>**Format Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.healthcareFacilityTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secteur d'activité lié à la prise en charge de la personne, en lien avec le document produit. </t>
+  </si>
+  <si>
+    <t>Healthcare Facility Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.practiceSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexte de l’acte qui a engendré la création du document. </t>
+  </si>
+  <si>
+    <t>**Practice Setting**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>Métadonnée représentant le type du document.</t>
+  </si>
+  <si>
+    <t>**Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.documentAvailability</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente '’accessibilité du document en indiquant si celui-ci est accessible en ligne ou non</t>
+  </si>
+  <si>
+    <t>DocumentEntry.homeCommunityId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l'identifiant de la communauté représentée par le système cible, si celui-ci offre les fonctionnalités de communication avec d'autres communautés, présentées dans le profil XCA d'IHE. Elle n'est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.creationTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
   </si>
   <si>
     <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
-    <t>DocumentEntry.format</t>
-  </si>
-  <si>
-    <t>format of the document</t>
-  </si>
-  <si>
-    <t>**Format Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP(required)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>size of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.hash</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
-  </si>
-  <si>
-    <t>DocumentEntry.practiceSetting</t>
-  </si>
-  <si>
-    <t>practice setting</t>
-  </si>
-  <si>
-    <t>**Practice Setting**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.healthcareFacilityTypeCode</t>
-  </si>
-  <si>
-    <t>healthcare facility type code</t>
-  </si>
-  <si>
-    <t>Healthcare Facility Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>legal authenticator of the document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.limitedMetadata</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>DocumentEntry.mimeType</t>
-  </si>
-  <si>
-    <t>mime type</t>
-  </si>
-  <si>
-    <t>DocumentEntry.objectType</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID</t>
-  </si>
-  <si>
-    <t>identifier of patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t>additional information to patient</t>
-  </si>
-  <si>
     <t>DocumentEntry.referenceIdList</t>
   </si>
   <si>
-    <t>list of reference identifiers</t>
-  </si>
-  <si>
-    <t>DocumentEntry.repositoryUniqueID</t>
-  </si>
-  <si>
-    <t>identifier of repository</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceStartTime</t>
-  </si>
-  <si>
-    <t>start of service</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceEndTime</t>
-  </si>
-  <si>
-    <t>end of service</t>
+    <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
   </si>
 </sst>
 </file>
@@ -776,7 +825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -795,7 +844,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1160,13 +1209,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1234,10 +1283,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1260,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>85</v>
@@ -1317,7 +1366,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1360,13 +1409,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1393,11 +1442,11 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1432,10 +1481,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1458,13 +1507,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>93</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1491,11 +1540,13 @@
         <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>72</v>
@@ -1513,7 +1564,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1530,10 +1581,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1544,7 +1595,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1556,13 +1607,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1613,13 +1664,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1630,10 +1681,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1641,7 +1692,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -1656,13 +1707,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1689,11 +1740,13 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z9" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1711,10 +1764,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
@@ -1728,10 +1781,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1757,10 +1810,10 @@
         <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1811,7 +1864,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1828,10 +1881,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1854,13 +1907,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1887,11 +1940,13 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>72</v>
@@ -1909,7 +1964,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1926,10 +1981,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1952,13 +2007,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2009,7 +2064,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2026,10 +2081,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2037,7 +2092,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -2052,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2085,11 +2140,13 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2107,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -2124,10 +2181,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2135,7 +2192,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2150,13 +2207,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2207,10 +2264,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -2224,10 +2281,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2250,13 +2307,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2307,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2324,10 +2381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2335,7 +2392,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -2350,13 +2407,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2383,11 +2440,13 @@
         <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -2405,10 +2464,10 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
@@ -2422,10 +2481,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2448,13 +2507,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2481,11 +2540,13 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -2503,7 +2564,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2520,10 +2581,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2546,13 +2607,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2603,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -2620,10 +2681,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2631,7 +2692,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -2649,10 +2710,10 @@
         <v>79</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2703,10 +2764,10 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
@@ -2720,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2746,13 +2807,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2803,7 +2864,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -2820,10 +2881,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2846,13 +2907,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2879,13 +2940,11 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -2903,7 +2962,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -2920,10 +2979,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2934,7 +2993,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -2946,13 +3005,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2979,13 +3038,11 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -3003,13 +3060,13 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
@@ -3020,10 +3077,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3034,7 +3091,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3046,10 +3103,10 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>141</v>
@@ -3103,13 +3160,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3131,10 +3188,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3146,13 +3203,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3179,13 +3236,11 @@
         <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>72</v>
@@ -3206,10 +3261,10 @@
         <v>142</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3220,10 +3275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3231,7 +3286,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -3246,13 +3301,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3279,13 +3334,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -3303,10 +3356,10 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
@@ -3320,10 +3373,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3331,7 +3384,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -3346,13 +3399,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3379,13 +3432,11 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
@@ -3403,10 +3454,10 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
@@ -3420,10 +3471,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3446,13 +3497,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3479,13 +3530,11 @@
         <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>72</v>
@@ -3503,7 +3552,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3515,6 +3564,406 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T13:43:05+00:00</t>
+    <t>2025-04-30T14:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T14:55:26+00:00</t>
+    <t>2025-04-30T15:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:08:51+00:00</t>
+    <t>2025-04-30T15:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:42:49+00:00</t>
+    <t>2025-04-30T15:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique d'un document</t>
+    <t>Model logique  d’une fiche</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,16 +253,20 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">uuid
+</t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté à la version de la fiche référençant le document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.logicalId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifiant unique du document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.logicalId</t>
-  </si>
-  <si>
     <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
   </si>
   <si>
@@ -308,9 +312,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée correspond à la taille du document déposé. </t>
-  </si>
-  <si>
     <t>Cette métadonnée correspond à la taille du document déposé.</t>
   </si>
   <si>
@@ -323,16 +324,153 @@
     <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
   </si>
   <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
+  </si>
+  <si>
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
     <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
   </si>
   <si>
     <t>XCN</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {elementdefinition-identifier}
+</t>
+  </si>
+  <si>
+    <t>Identifiant (PS_IdNat)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN2</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN10</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN13</t>
+  </si>
+  <si>
+    <t>Type d’identifiant</t>
+  </si>
+  <si>
     <t>DocumentEntry.repositoryUniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oid
+</t>
   </si>
   <si>
     <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
@@ -360,15 +498,114 @@
     <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
   </si>
   <si>
+    <t>DocumentEntry.sourcePatientID.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX1</t>
+  </si>
+  <si>
+    <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX4</t>
+  </si>
+  <si>
+    <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
     <t>DocumentEntry.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
   </si>
   <si>
+    <t>DocumentEntry.sourcePatientInfo.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID3</t>
+  </si>
+  <si>
+    <t>Liste des identifiants du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID5</t>
+  </si>
+  <si>
+    <t>Nom et prénoms du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID7</t>
+  </si>
+  <si>
+    <t>Date/heure de naissance du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID8</t>
+  </si>
+  <si>
+    <t>Sexe du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID11</t>
+  </si>
+  <si>
+    <t>Adresse du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID13</t>
+  </si>
+  <si>
+    <t>Téléphone de la résidence du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID14</t>
+  </si>
+  <si>
+    <t>Téléphone professionnel du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID15</t>
+  </si>
+  <si>
+    <t>Langue du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID16</t>
+  </si>
+  <si>
+    <t>Statut marital du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID18</t>
+  </si>
+  <si>
+    <t>Numéro de compte du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID21</t>
+  </si>
+  <si>
+    <t>Identifiant de la mère du patient</t>
+  </si>
+  <si>
     <t>DocumentEntry.URI</t>
   </si>
   <si>
@@ -384,16 +621,14 @@
     <t>DocumentEntry.comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée contient le commentaire associé au document.</t>
   </si>
   <si>
     <t>DocumentEntry.patientID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
+</t>
   </si>
   <si>
     <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
@@ -411,7 +646,7 @@
     <t>DocumentEntry.class</t>
   </si>
   <si>
-    <t xml:space="preserve">class représente la classe du document </t>
+    <t>class représente la classe du document (compte rendu, imagerie médicale, traitement, certificat, etc.).</t>
   </si>
   <si>
     <t>**Class Code**</t>
@@ -451,7 +686,7 @@
     <t>DocumentEntry.format</t>
   </si>
   <si>
-    <t xml:space="preserve">Métadonnée contenant les informations définissant le format du document. </t>
+    <t>Métadonnée contenant les informations définissant le format du document.</t>
   </si>
   <si>
     <t>**Format Code**</t>
@@ -511,9 +746,6 @@
     <t>DocumentEntry.creationTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
@@ -521,6 +753,39 @@
   </si>
   <si>
     <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX1</t>
+  </si>
+  <si>
+    <t>Identifiant de l'objet référencé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX4</t>
+  </si>
+  <si>
+    <t>Identifiant de l’organisme ayant attribué l’identifiant de l'objet référencé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX5</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J231-XdsTypesIdentifiantsReferenceId-DMP/FHIR/JDV-J231-XdsTypesIdentifiantsReferenceId-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.version</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le numéro de version de la fiche d’un document.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -834,10 +1099,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.01953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
@@ -848,7 +1113,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -859,10 +1124,10 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="96.13671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="105.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1209,13 +1474,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1283,10 +1548,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1309,13 +1574,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1366,7 +1631,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1383,10 +1648,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1409,13 +1674,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1442,11 +1707,11 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1464,7 +1729,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -1481,10 +1746,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1507,13 +1772,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1564,7 +1829,7 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1581,10 +1846,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1607,10 +1872,10 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
         <v>97</v>
@@ -1664,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1707,7 +1972,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>99</v>
@@ -1792,10 +2057,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -1807,10 +2072,10 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>103</v>
@@ -1867,10 +2132,10 @@
         <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -1907,13 +2172,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1976,15 +2241,15 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1992,7 +2257,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -2007,13 +2272,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2064,10 +2329,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
@@ -2081,21 +2346,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2107,15 +2372,17 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>72</v>
@@ -2152,71 +2419,75 @@
         <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>72</v>
       </c>
@@ -2264,27 +2535,27 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2307,13 +2578,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2364,7 +2635,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2381,10 +2652,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2407,13 +2678,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2464,7 +2735,7 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2481,10 +2752,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2507,13 +2778,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2564,7 +2835,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2581,10 +2852,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2592,7 +2863,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -2607,13 +2878,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2664,10 +2935,10 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
@@ -2681,10 +2952,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2707,13 +2978,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2764,7 +3035,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2781,10 +3052,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2807,13 +3078,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2864,7 +3135,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -2881,10 +3152,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2907,13 +3178,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2940,11 +3211,13 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -2962,7 +3235,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -2979,10 +3252,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2993,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3005,13 +3278,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3038,11 +3311,13 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
@@ -3060,13 +3335,13 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
@@ -3077,10 +3352,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3091,7 +3366,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3103,13 +3378,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3160,13 +3435,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3177,10 +3452,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3203,13 +3478,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3236,11 +3511,13 @@
         <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>72</v>
@@ -3258,7 +3535,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3270,15 +3547,15 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3286,7 +3563,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -3301,13 +3578,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3334,11 +3611,13 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -3356,10 +3635,10 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
@@ -3373,21 +3652,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3399,15 +3678,17 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -3432,81 +3713,87 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
       </c>
@@ -3530,11 +3817,13 @@
         <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>72</v>
@@ -3552,19 +3841,19 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -3580,7 +3869,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -3595,7 +3884,7 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>159</v>
@@ -3655,7 +3944,7 @@
         <v>158</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -3680,7 +3969,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -3695,7 +3984,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>161</v>
@@ -3755,7 +4044,7 @@
         <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
@@ -3795,13 +4084,13 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>163</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3869,10 +4158,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3880,10 +4169,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -3895,13 +4184,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3952,18 +4241,3716 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH31" t="s" s="2">
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y52" s="2"/>
+      <c r="Z52" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,7 +337,7 @@
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
 </t>
   </si>
   <si>
@@ -898,7 +898,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -327,7 +327,7 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorDocumentEntry
 </t>
   </si>
   <si>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique  d’une fiche</t>
+    <t>Modèle logique  d’une fiche</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
     <t>**Availability Status**</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
@@ -334,11 +334,11 @@
     <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
   </si>
   <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
+    <t>DocumentEntry.legalAuthenticator[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
@@ -439,7 +439,7 @@
     <t>**Class Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.confidentiality</t>
@@ -479,7 +479,7 @@
     <t>**Format Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.healthcareFacilityTypeCode</t>
@@ -491,7 +491,7 @@
     <t>Healthcare Facility Type Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSetting</t>
@@ -503,7 +503,7 @@
     <t>**Practice Setting**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.type</t>
@@ -515,7 +515,7 @@
     <t>**Type Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.documentAvailability</t>
@@ -568,7 +568,7 @@
     <t>Type d’identifiant</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J231-XdsTypesIdentifiantsReferenceId-DMP/FHIR/JDV-J231-XdsTypesIdentifiantsReferenceId-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J197-XdsTypesIdentifiantsReferenceId-CISIS/FHIR/JDV-J197-XdsTypesIdentifiantsReferenceId-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.version</t>
@@ -898,7 +898,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="198.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="128.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -913,7 +913,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="105.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.83203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="186">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: null</t>
   </si>
   <si>
     <t/>
@@ -260,6 +263,9 @@
     <t>Identifiant unique affecté à la version de la fiche référençant le document.</t>
   </si>
   <si>
+    <t>Les valeurs possibles pour cette métadonnée doivent être un code provenant du jeu de valeurs mis à disposition par le projet. En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J52_AvailabilityStatus_CISIS peut être utilisé.</t>
+  </si>
+  <si>
     <t>DocumentEntry.logicalId</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
   </si>
   <si>
+    <t>Non applicable, cette métadonnée n'est pas soumise par le système initiateur. Le registre du système cible gère cette information et fournit sa valeur en réponse à une requête stockée.</t>
+  </si>
+  <si>
     <t>DocumentEntry.hash</t>
   </si>
   <si>
@@ -436,10 +445,28 @@
     <t>class représente la classe du document (compte rendu, imagerie médicale, traitement, certificat, etc.).</t>
   </si>
   <si>
-    <t>**Class Code**</t>
+    <t>class est constitué des attributs : 
+- **classCode**
+- **classCodeDisplayName**
+- **codingScheme***
+**classCode**
+- Type : Non contraint
+- Contenu : Les valeurs possibles doivent être un code provenant du jeu de valeurs mis à disposition par le projet (exemple : JDV_J57_ClassCode_DMP). En l’absence de spécifications complémentaires, le JDV_J06_XdsClassCode_CISIS peut être utilisé. 
+- Source : En fonction de l’interface fournie (ex. paramétrage fixe ou choix dans un menu déroulant). 
+**classCodeDisplayName**
+- Type : Non contraint
+- Contenu : L’intitulé de la classe de document correspond au libellé associé au code de **classCode**.
+- Source : En fonction de l’interface fournie (ex. paramétrage fixe ou choix dans un menu déroulant). 
+**codingScheme**
+- Type : OID
+- Le code système de la classe de document correspond à l’OID associé au code de classCode. 
+- Source : En fonction de l’interface fournie (ex. paramétrage fixe ou choix dans un menu déroulant).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
+  </si>
+  <si>
+    <t>code@code (classCode est déduit de typeCode selon la table de correspondance entre ces deux métadonnées référencée dans les Nomenclatures des Objets de Santé (NOS) : ASS_X04-CorrespondanceType-Classe)</t>
   </si>
   <si>
     <t>DocumentEntry.confidentiality</t>
@@ -879,7 +906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -923,6 +950,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="170.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1034,6 +1062,9 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1044,26 +1075,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -1074,3449 +1105,3554 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-DocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,16 +279,20 @@
     <t>DocumentEntry.mimeType</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d'un document. </t>
   </si>
   <si>
@@ -305,10 +309,6 @@
   </si>
   <si>
     <t>DocumentEntry.hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
@@ -1506,13 +1506,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1539,11 +1539,11 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -1576,15 +1576,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1607,7 +1607,7 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>97</v>
@@ -1664,7 +1664,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -1813,7 +1813,7 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2637,7 +2637,7 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>126</v>
@@ -2740,7 +2740,7 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>128</v>
@@ -2843,7 +2843,7 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>130</v>
@@ -3152,7 +3152,7 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>138</v>
@@ -3185,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
@@ -3253,7 +3253,7 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>144</v>
@@ -3286,7 +3286,7 @@
         <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
@@ -3457,7 +3457,7 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>152</v>
@@ -3490,7 +3490,7 @@
         <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
@@ -3558,7 +3558,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>156</v>
@@ -3591,7 +3591,7 @@
         <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
@@ -3659,7 +3659,7 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>160</v>
@@ -3692,7 +3692,7 @@
         <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
@@ -3760,7 +3760,7 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>164</v>
@@ -3793,7 +3793,7 @@
         <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
@@ -3861,7 +3861,7 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>168</v>
@@ -4479,7 +4479,7 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>182</v>
@@ -4512,7 +4512,7 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
